--- a/main/assets/finance.xlsx
+++ b/main/assets/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18500" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18500" windowHeight="11020" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="eparne" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,96 +396,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>46023</v>
-      </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>46023</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>46023</v>
-      </c>
-      <c r="B4">
-        <v>5.9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -495,33 +406,32 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <f ca="1">OFFSET(B1,COUNTA(B:B)-1,)</f>
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
+      <c r="E1">
+        <f>SUM(C2:C1000)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>46023</v>
       </c>
-      <c r="B2" s="1">
-        <v>46023</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -530,49 +440,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>46023</v>
-      </c>
-      <c r="B2">
-        <v>1500</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -582,27 +452,196 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <f>SUM(B2:B1000)</f>
+        <v>34.9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>46023</v>
       </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B4">
+        <v>5.9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1">
+        <f ca="1">SUMIFS(C:C,A:A, "&lt;="&amp;TODAY(),B:B, "&gt;"&amp;TODAY())</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>46023</v>
+      </c>
       <c r="B2" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <f>SUM(B2:B1000)</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>46023</v>
+      </c>
+      <c r="B2">
+        <v>1500</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1">
+        <f ca="1">SUMIFS(C:C,A:A, "&lt;="&amp;TODAY(),B:B, "&gt;"&amp;TODAY())</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B2" s="1">
+        <v>46054</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -610,6 +649,9 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/assets/finance.xlsx
+++ b/main/assets/finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18500" windowHeight="11020" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18500" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="eparne" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>date_debut</t>
   </si>
@@ -45,24 +45,6 @@
   </si>
   <si>
     <t>descritpion</t>
-  </si>
-  <si>
-    <t>cours</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>salaire</t>
-  </si>
-  <si>
-    <t>prime</t>
-  </si>
-  <si>
-    <t>Crunchyrol</t>
-  </si>
-  <si>
-    <t>ADN</t>
   </si>
 </sst>
 </file>
@@ -398,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -445,7 +427,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -465,41 +447,17 @@
       </c>
       <c r="E1">
         <f>SUM(B2:B1000)</f>
-        <v>34.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>46023</v>
-      </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>46023</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>46023</v>
-      </c>
-      <c r="B4">
-        <v>5.9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -512,7 +470,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -535,22 +493,12 @@
       </c>
       <c r="F1">
         <f ca="1">SUMIFS(C:C,A:A, "&lt;="&amp;TODAY(),B:B, "&gt;"&amp;TODAY())</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>46023</v>
-      </c>
-      <c r="B2" s="1">
-        <v>46054</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="2"/>
@@ -566,7 +514,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -586,19 +534,11 @@
       </c>
       <c r="E1">
         <f>SUM(B2:B1000)</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>46023</v>
-      </c>
-      <c r="B2">
-        <v>1500</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -609,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -633,22 +573,12 @@
       </c>
       <c r="F1">
         <f ca="1">SUMIFS(C:C,A:A, "&lt;="&amp;TODAY(),B:B, "&gt;"&amp;TODAY())</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>46023</v>
-      </c>
-      <c r="B2" s="1">
-        <v>46054</v>
-      </c>
-      <c r="C2">
-        <v>2000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="1"/>
